--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_latest_eval.xlsx
@@ -1766,7 +1766,10 @@
         <v>-0.06741148657190271</v>
       </c>
       <c r="I45">
-        <v>0.5155290707088481</v>
+        <v>0.4487415504340581</v>
+      </c>
+      <c r="J45">
+        <v>0.2388379152847414</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1792,7 +1795,10 @@
         <v>0.06822860359833866</v>
       </c>
       <c r="H46">
-        <v>0.6511691608790895</v>
+        <v>0.5843816406042994</v>
+      </c>
+      <c r="I46">
+        <v>0.3744780054549828</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1815,7 +1821,10 @@
         <v>-0.172577578257326</v>
       </c>
       <c r="G47">
-        <v>0.4103629790234248</v>
+        <v>0.3435754587486348</v>
+      </c>
+      <c r="H47">
+        <v>0.1336718235993181</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1835,10 +1844,13 @@
         <v>-0.2179087935094224</v>
       </c>
       <c r="F48">
-        <v>0.3650317637713285</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.2982442434965384</v>
+      </c>
+      <c r="G48">
+        <v>0.08834060834722172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -1852,10 +1864,13 @@
         <v>-0.2847702154454763</v>
       </c>
       <c r="E49">
-        <v>0.2981703418352746</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.2313828215604846</v>
+      </c>
+      <c r="F49">
+        <v>0.02147918641116785</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -1866,10 +1881,13 @@
         <v>-0.3143564178021929</v>
       </c>
       <c r="D50">
-        <v>0.268584139478558</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.201796619203768</v>
+      </c>
+      <c r="E50">
+        <v>-0.00810701594554874</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -1877,20 +1895,29 @@
         <v>-0.3325070745318338</v>
       </c>
       <c r="C51">
-        <v>0.2504334827489171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.1836459624741271</v>
+      </c>
+      <c r="D51">
+        <v>-0.02625767267518964</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0.2324016585002178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.1656141382254278</v>
+      </c>
+      <c r="C52">
+        <v>-0.04428949692388896</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="B53">
+        <v>-0.09587373626955231</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_latest_eval.xlsx
@@ -489,28 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.6603092772102132</v>
+        <v>-0.1340702663479956</v>
       </c>
       <c r="C2">
-        <v>-0.1340702663479956</v>
+        <v>-0.2758992130872696</v>
       </c>
       <c r="D2">
-        <v>-0.2758992130872696</v>
+        <v>0.3670754083147943</v>
       </c>
       <c r="E2">
-        <v>0.3670754083147943</v>
+        <v>0.4914881146443768</v>
       </c>
       <c r="F2">
-        <v>0.4914881146443768</v>
+        <v>0.09385790860675949</v>
       </c>
       <c r="G2">
-        <v>0.09385790860675949</v>
+        <v>0.01768919490591373</v>
       </c>
       <c r="H2">
-        <v>0.01768919490591373</v>
+        <v>0.2940112530288354</v>
       </c>
       <c r="I2">
-        <v>0.2940112530288354</v>
+        <v>0.1227914307171113</v>
+      </c>
+      <c r="J2">
+        <v>0.2759388362258526</v>
+      </c>
+      <c r="K2">
+        <v>-0.001489938197266189</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,25 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-0.15162438770796</v>
+        <v>-0.293453334447234</v>
       </c>
       <c r="C3">
-        <v>-0.293453334447234</v>
+        <v>0.3495212869548299</v>
       </c>
       <c r="D3">
-        <v>0.3495212869548299</v>
+        <v>0.4739339932844123</v>
       </c>
       <c r="E3">
-        <v>0.4739339932844123</v>
+        <v>0.07630378724679503</v>
       </c>
       <c r="F3">
-        <v>0.07630378724679503</v>
+        <v>0.0001350735459492769</v>
       </c>
       <c r="G3">
-        <v>0.0001350735459492769</v>
+        <v>0.2764571316688709</v>
       </c>
       <c r="H3">
-        <v>0.2764571316688709</v>
+        <v>0.1052373093571469</v>
+      </c>
+      <c r="I3">
+        <v>0.2583847148658881</v>
+      </c>
+      <c r="J3">
+        <v>-0.01904405955723064</v>
+      </c>
+      <c r="K3">
+        <v>-0.182031752916177</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.2053460154962278</v>
+        <v>0.4376286059058361</v>
       </c>
       <c r="C4">
-        <v>0.4376286059058361</v>
+        <v>0.5620413122354185</v>
       </c>
       <c r="D4">
-        <v>0.5620413122354185</v>
+        <v>0.1644111061978012</v>
       </c>
       <c r="E4">
-        <v>0.1644111061978012</v>
+        <v>0.08824239249695551</v>
       </c>
       <c r="F4">
-        <v>0.08824239249695551</v>
+        <v>0.3645644506198771</v>
       </c>
       <c r="G4">
-        <v>0.3645644506198771</v>
+        <v>0.1933446283081531</v>
       </c>
       <c r="H4">
-        <v>0.1933446283081531</v>
+        <v>0.3464920338168943</v>
       </c>
       <c r="I4">
-        <v>0.3464920338168943</v>
+        <v>0.06906325939377558</v>
       </c>
       <c r="J4">
-        <v>0.06906325939377558</v>
+        <v>-0.09392443396517081</v>
       </c>
       <c r="K4">
-        <v>-0.09392443396517081</v>
+        <v>-0.2180070093596886</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,31 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.6162032393936197</v>
+        <v>0.7406159457232021</v>
       </c>
       <c r="C5">
-        <v>0.7406159457232021</v>
+        <v>0.3429857396855849</v>
       </c>
       <c r="D5">
-        <v>0.3429857396855849</v>
+        <v>0.2668170259847391</v>
       </c>
       <c r="E5">
-        <v>0.2668170259847391</v>
+        <v>0.5431390841076607</v>
       </c>
       <c r="F5">
-        <v>0.5431390841076607</v>
+        <v>0.3719192617959367</v>
       </c>
       <c r="G5">
-        <v>0.3719192617959367</v>
+        <v>0.525066667304678</v>
       </c>
       <c r="H5">
-        <v>0.525066667304678</v>
+        <v>0.2476378928815592</v>
       </c>
       <c r="I5">
-        <v>0.2476378928815592</v>
+        <v>0.0846501995226128</v>
       </c>
       <c r="J5">
-        <v>0.0846501995226128</v>
+        <v>-0.03943237587190501</v>
+      </c>
+      <c r="K5">
+        <v>0.4767206611340558</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,28 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.652643173475852</v>
+        <v>1.255012967438235</v>
       </c>
       <c r="C6">
-        <v>1.255012967438235</v>
+        <v>1.178844253737389</v>
       </c>
       <c r="D6">
+        <v>1.455166311860311</v>
+      </c>
+      <c r="E6">
+        <v>1.283946489548587</v>
+      </c>
+      <c r="F6">
+        <v>1.437093895057328</v>
+      </c>
+      <c r="G6">
+        <v>1.159665120634209</v>
+      </c>
+      <c r="H6">
+        <v>0.9966774272752628</v>
+      </c>
+      <c r="I6">
+        <v>0.8725948518807449</v>
+      </c>
+      <c r="J6">
+        <v>1.388747888886706</v>
+      </c>
+      <c r="K6">
         <v>1.178844253737389</v>
-      </c>
-      <c r="E6">
-        <v>1.455166311860311</v>
-      </c>
-      <c r="F6">
-        <v>1.283946489548587</v>
-      </c>
-      <c r="G6">
-        <v>1.437093895057328</v>
-      </c>
-      <c r="H6">
-        <v>1.159665120634209</v>
-      </c>
-      <c r="I6">
-        <v>0.9966774272752628</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -640,25 +664,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.3110387314724781</v>
+        <v>0.2348700177716323</v>
       </c>
       <c r="C7">
+        <v>0.5111920758945538</v>
+      </c>
+      <c r="D7">
+        <v>0.3399722535828299</v>
+      </c>
+      <c r="E7">
+        <v>0.4931196590915711</v>
+      </c>
+      <c r="F7">
+        <v>0.2156908846684524</v>
+      </c>
+      <c r="G7">
+        <v>0.05270319130950599</v>
+      </c>
+      <c r="H7">
+        <v>-0.07137938408501182</v>
+      </c>
+      <c r="I7">
+        <v>0.444773652920949</v>
+      </c>
+      <c r="J7">
         <v>0.2348700177716323</v>
-      </c>
-      <c r="D7">
-        <v>0.5111920758945538</v>
-      </c>
-      <c r="E7">
-        <v>0.3399722535828299</v>
-      </c>
-      <c r="F7">
-        <v>0.4931196590915711</v>
-      </c>
-      <c r="G7">
-        <v>0.2156908846684524</v>
-      </c>
-      <c r="H7">
-        <v>0.05270319130950599</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -666,30 +696,27 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.2388379152847414</v>
+        <v>0.5151599734076631</v>
       </c>
       <c r="C8">
-        <v>0.5151599734076631</v>
+        <v>0.343940151095939</v>
       </c>
       <c r="D8">
-        <v>0.343940151095939</v>
+        <v>0.4970875566046802</v>
       </c>
       <c r="E8">
-        <v>0.4970875566046802</v>
+        <v>0.2196587821815615</v>
       </c>
       <c r="F8">
-        <v>0.2196587821815615</v>
+        <v>0.0566710888226151</v>
       </c>
       <c r="G8">
-        <v>0.0566710888226151</v>
+        <v>-0.06741148657190271</v>
       </c>
       <c r="H8">
-        <v>-0.06741148657190271</v>
+        <v>0.4487415504340581</v>
       </c>
       <c r="I8">
-        <v>0.4487415504340581</v>
-      </c>
-      <c r="J8">
         <v>0.2388379152847414</v>
       </c>
     </row>
@@ -698,27 +725,24 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.6508000635779043</v>
+        <v>0.4795802412661804</v>
       </c>
       <c r="C9">
-        <v>0.4795802412661804</v>
+        <v>0.6327276467749217</v>
       </c>
       <c r="D9">
-        <v>0.6327276467749217</v>
+        <v>0.3552988723518029</v>
       </c>
       <c r="E9">
-        <v>0.3552988723518029</v>
+        <v>0.1923111789928565</v>
       </c>
       <c r="F9">
-        <v>0.1923111789928565</v>
+        <v>0.06822860359833866</v>
       </c>
       <c r="G9">
-        <v>0.06822860359833866</v>
+        <v>0.5843816406042994</v>
       </c>
       <c r="H9">
-        <v>0.5843816406042994</v>
-      </c>
-      <c r="I9">
         <v>0.3744780054549828</v>
       </c>
     </row>
@@ -727,24 +751,21 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2387740594105157</v>
+        <v>0.3919214649192569</v>
       </c>
       <c r="C10">
-        <v>0.3919214649192569</v>
+        <v>0.1144926904961382</v>
       </c>
       <c r="D10">
-        <v>0.1144926904961382</v>
+        <v>-0.04849500286280822</v>
       </c>
       <c r="E10">
-        <v>-0.04849500286280822</v>
+        <v>-0.172577578257326</v>
       </c>
       <c r="F10">
-        <v>-0.172577578257326</v>
+        <v>0.3435754587486348</v>
       </c>
       <c r="G10">
-        <v>0.3435754587486348</v>
-      </c>
-      <c r="H10">
         <v>0.1336718235993181</v>
       </c>
     </row>
@@ -753,21 +774,18 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.3465902496671606</v>
+        <v>0.0691614752440418</v>
       </c>
       <c r="C11">
-        <v>0.0691614752440418</v>
+        <v>-0.09382621811490459</v>
       </c>
       <c r="D11">
-        <v>-0.09382621811490459</v>
+        <v>-0.2179087935094224</v>
       </c>
       <c r="E11">
-        <v>-0.2179087935094224</v>
+        <v>0.2982442434965384</v>
       </c>
       <c r="F11">
-        <v>0.2982442434965384</v>
-      </c>
-      <c r="G11">
         <v>0.08834060834722172</v>
       </c>
     </row>
@@ -776,18 +794,15 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.00230005330798793</v>
+        <v>-0.1606876400509585</v>
       </c>
       <c r="C12">
-        <v>-0.1606876400509585</v>
+        <v>-0.2847702154454763</v>
       </c>
       <c r="D12">
-        <v>-0.2847702154454763</v>
+        <v>0.2313828215604846</v>
       </c>
       <c r="E12">
-        <v>0.2313828215604846</v>
-      </c>
-      <c r="F12">
         <v>0.02147918641116785</v>
       </c>
     </row>
@@ -796,15 +811,12 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.1902738424076751</v>
+        <v>-0.3143564178021929</v>
       </c>
       <c r="C13">
-        <v>-0.3143564178021929</v>
+        <v>0.201796619203768</v>
       </c>
       <c r="D13">
-        <v>0.201796619203768</v>
-      </c>
-      <c r="E13">
         <v>-0.00810701594554874</v>
       </c>
     </row>
@@ -813,12 +825,9 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.3325070745318338</v>
+        <v>0.1836459624741271</v>
       </c>
       <c r="C14">
-        <v>0.1836459624741271</v>
-      </c>
-      <c r="D14">
         <v>-0.02625767267518964</v>
       </c>
     </row>
@@ -827,18 +836,12 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1656141382254278</v>
-      </c>
-      <c r="C15">
         <v>-0.04428949692388896</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B16">
-        <v>-0.09587373626955231</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_latest_eval.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.6603092772102132</v>
+      </c>
+      <c r="C2">
         <v>-0.1340702663479956</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.2758992130872696</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.3670754083147943</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.4914881146443768</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.09385790860675949</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.01768919490591373</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.2940112530288354</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.1227914307171113</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.2759388362258526</v>
-      </c>
-      <c r="K2">
-        <v>-0.001489938197266189</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>-0.15162438770796</v>
+      </c>
+      <c r="C3">
         <v>-0.293453334447234</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.3495212869548299</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.4739339932844123</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.07630378724679503</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0001350735459492769</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.2764571316688709</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.1052373093571469</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.2583847148658881</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.01904405955723064</v>
-      </c>
-      <c r="K3">
-        <v>-0.182031752916177</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>-0.2053460154962278</v>
+      </c>
+      <c r="C4">
         <v>0.4376286059058361</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.5620413122354185</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.1644111061978012</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.08824239249695551</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.3645644506198771</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.1933446283081531</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.3464920338168943</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.06906325939377558</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.09392443396517081</v>
-      </c>
-      <c r="K4">
-        <v>-0.2180070093596886</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.6162032393936197</v>
+      </c>
+      <c r="C5">
         <v>0.7406159457232021</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.3429857396855849</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.2668170259847391</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.5431390841076607</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.3719192617959367</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.525066667304678</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.2476378928815592</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.0846501995226128</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.03943237587190501</v>
-      </c>
-      <c r="K5">
-        <v>0.4767206611340558</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>1.652643173475852</v>
+      </c>
+      <c r="C6">
         <v>1.255012967438235</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.178844253737389</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.455166311860311</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.283946489548587</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.437093895057328</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.159665120634209</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.9966774272752628</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.8725948518807449</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1.388747888886706</v>
-      </c>
-      <c r="K6">
-        <v>1.178844253737389</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,30 +664,33 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>0.3110387314724781</v>
+      </c>
+      <c r="C7">
         <v>0.2348700177716323</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.5111920758945538</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.3399722535828299</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.4931196590915711</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.2156908846684524</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.05270319130950599</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.07137938408501182</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.444773652920949</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.2348700177716323</v>
       </c>
     </row>
@@ -696,27 +699,30 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.2388379152847414</v>
+      </c>
+      <c r="C8">
         <v>0.5151599734076631</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.343940151095939</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.4970875566046802</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.2196587821815615</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.0566710888226151</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.06741148657190271</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.4487415504340581</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.2388379152847414</v>
       </c>
     </row>
@@ -725,24 +731,27 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.6508000635779043</v>
+      </c>
+      <c r="C9">
         <v>0.4795802412661804</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.6327276467749217</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.3552988723518029</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.1923111789928565</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.06822860359833866</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.5843816406042994</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.3744780054549828</v>
       </c>
     </row>
@@ -751,21 +760,24 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>0.2387740594105157</v>
+      </c>
+      <c r="C10">
         <v>0.3919214649192569</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.1144926904961382</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.04849500286280822</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.172577578257326</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.3435754587486348</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.1336718235993181</v>
       </c>
     </row>
@@ -774,18 +786,21 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.3465902496671606</v>
+      </c>
+      <c r="C11">
         <v>0.0691614752440418</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.09382621811490459</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.2179087935094224</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.2982442434965384</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.08834060834722172</v>
       </c>
     </row>
@@ -794,15 +809,18 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>0.00230005330798793</v>
+      </c>
+      <c r="C12">
         <v>-0.1606876400509585</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.2847702154454763</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2313828215604846</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.02147918641116785</v>
       </c>
     </row>
@@ -811,12 +829,15 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-0.1902738424076751</v>
+      </c>
+      <c r="C13">
         <v>-0.3143564178021929</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.201796619203768</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.00810701594554874</v>
       </c>
     </row>
@@ -825,9 +846,12 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.3325070745318338</v>
+      </c>
+      <c r="C14">
         <v>0.1836459624741271</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.02625767267518964</v>
       </c>
     </row>
@@ -836,12 +860,18 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.1656141382254278</v>
+      </c>
+      <c r="C15">
         <v>-0.04428949692388896</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.09587373626955231</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_latest_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -44,6 +44,117 @@
   </si>
   <si>
     <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -446,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,34 +600,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.6603092772102132</v>
+        <v>-0.0784733436364673</v>
       </c>
       <c r="C2">
-        <v>-0.1340702663479956</v>
+        <v>0.08065295778981685</v>
       </c>
       <c r="D2">
-        <v>-0.2758992130872696</v>
+        <v>1.022575281055017</v>
       </c>
       <c r="E2">
-        <v>0.3670754083147943</v>
+        <v>1.210076349390349</v>
       </c>
       <c r="F2">
-        <v>0.4914881146443768</v>
-      </c>
-      <c r="G2">
-        <v>0.09385790860675949</v>
-      </c>
-      <c r="H2">
-        <v>0.01768919490591373</v>
-      </c>
-      <c r="I2">
-        <v>0.2940112530288354</v>
-      </c>
-      <c r="J2">
-        <v>0.1227914307171113</v>
-      </c>
-      <c r="K2">
-        <v>0.2759388362258526</v>
+        <v>2.215294659555314</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +620,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-0.15162438770796</v>
+        <v>1.104312089099192</v>
       </c>
       <c r="C3">
-        <v>-0.293453334447234</v>
+        <v>1.291813157434523</v>
       </c>
       <c r="D3">
-        <v>0.3495212869548299</v>
+        <v>2.297031467599489</v>
       </c>
       <c r="E3">
-        <v>0.4739339932844123</v>
+        <v>5.431493235637681</v>
       </c>
       <c r="F3">
-        <v>0.07630378724679503</v>
+        <v>0.497689158236715</v>
       </c>
       <c r="G3">
-        <v>0.0001350735459492769</v>
+        <v>0.1236317945015498</v>
       </c>
       <c r="H3">
-        <v>0.2764571316688709</v>
-      </c>
-      <c r="I3">
-        <v>0.1052373093571469</v>
-      </c>
-      <c r="J3">
-        <v>0.2583847148658881</v>
-      </c>
-      <c r="K3">
-        <v>-0.01904405955723064</v>
+        <v>-0.02380962735559489</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.2053460154962278</v>
+        <v>2.091191727723699</v>
       </c>
       <c r="C4">
-        <v>0.4376286059058361</v>
+        <v>5.225653495761891</v>
       </c>
       <c r="D4">
-        <v>0.5620413122354185</v>
+        <v>0.2918494183609256</v>
       </c>
       <c r="E4">
-        <v>0.1644111061978012</v>
+        <v>-0.08220794537423959</v>
       </c>
       <c r="F4">
-        <v>0.08824239249695551</v>
-      </c>
-      <c r="G4">
-        <v>0.3645644506198771</v>
-      </c>
-      <c r="H4">
-        <v>0.1933446283081531</v>
-      </c>
-      <c r="I4">
-        <v>0.3464920338168943</v>
-      </c>
-      <c r="J4">
-        <v>0.06906325939377558</v>
-      </c>
-      <c r="K4">
-        <v>-0.09392443396517081</v>
+        <v>-0.2296493672313843</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +666,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.6162032393936197</v>
+        <v>-0.5264473040380895</v>
       </c>
       <c r="C5">
-        <v>0.7406159457232021</v>
+        <v>-0.9005046677732547</v>
       </c>
       <c r="D5">
-        <v>0.3429857396855849</v>
+        <v>-1.047946089630399</v>
       </c>
       <c r="E5">
-        <v>0.2668170259847391</v>
+        <v>-1.007451109782505</v>
       </c>
       <c r="F5">
-        <v>0.5431390841076607</v>
+        <v>-2.446654204041811</v>
       </c>
       <c r="G5">
-        <v>0.3719192617959367</v>
+        <v>-1.244959454137977</v>
       </c>
       <c r="H5">
-        <v>0.525066667304678</v>
-      </c>
-      <c r="I5">
-        <v>0.2476378928815592</v>
-      </c>
-      <c r="J5">
-        <v>0.0846501995226128</v>
-      </c>
-      <c r="K5">
-        <v>-0.03943237587190501</v>
+        <v>-0.9356696977468588</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +692,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.652643173475852</v>
+        <v>-1.052433927991407</v>
       </c>
       <c r="C6">
-        <v>1.255012967438235</v>
+        <v>-1.011938948143512</v>
       </c>
       <c r="D6">
-        <v>1.178844253737389</v>
+        <v>-2.451142042402819</v>
       </c>
       <c r="E6">
-        <v>1.455166311860311</v>
+        <v>-1.249447292498985</v>
       </c>
       <c r="F6">
-        <v>1.283946489548587</v>
-      </c>
-      <c r="G6">
-        <v>1.437093895057328</v>
-      </c>
-      <c r="H6">
-        <v>1.159665120634209</v>
-      </c>
-      <c r="I6">
-        <v>0.9966774272752628</v>
-      </c>
-      <c r="J6">
-        <v>0.8725948518807449</v>
-      </c>
-      <c r="K6">
-        <v>1.388747888886706</v>
+        <v>-0.9401575361078661</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,34 +712,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.3110387314724781</v>
+        <v>-2.527487953207926</v>
       </c>
       <c r="C7">
-        <v>0.2348700177716323</v>
+        <v>-1.325793203304092</v>
       </c>
       <c r="D7">
-        <v>0.5111920758945538</v>
+        <v>-1.016503446912973</v>
       </c>
       <c r="E7">
-        <v>0.3399722535828299</v>
+        <v>-2.171556292805672</v>
       </c>
       <c r="F7">
-        <v>0.4931196590915711</v>
+        <v>-0.6319224489160813</v>
       </c>
       <c r="G7">
-        <v>0.2156908846684524</v>
+        <v>-0.901576568889715</v>
       </c>
       <c r="H7">
-        <v>0.05270319130950599</v>
-      </c>
-      <c r="I7">
-        <v>-0.07137938408501182</v>
-      </c>
-      <c r="J7">
-        <v>0.444773652920949</v>
-      </c>
-      <c r="K7">
-        <v>0.2348700177716323</v>
+        <v>-0.3500448649906018</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -699,31 +738,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.2388379152847414</v>
+        <v>-0.8260246319213993</v>
       </c>
       <c r="C8">
-        <v>0.5151599734076631</v>
+        <v>-1.981077477814098</v>
       </c>
       <c r="D8">
-        <v>0.343940151095939</v>
+        <v>-0.4414436339245075</v>
       </c>
       <c r="E8">
-        <v>0.4970875566046802</v>
+        <v>-0.7110977538981412</v>
       </c>
       <c r="F8">
-        <v>0.2196587821815615</v>
-      </c>
-      <c r="G8">
-        <v>0.0566710888226151</v>
-      </c>
-      <c r="H8">
-        <v>-0.06741148657190271</v>
-      </c>
-      <c r="I8">
-        <v>0.4487415504340581</v>
-      </c>
-      <c r="J8">
-        <v>0.2388379152847414</v>
+        <v>-0.159566049999028</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,28 +758,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.6508000635779043</v>
+        <v>-0.1405287498260583</v>
       </c>
       <c r="C9">
-        <v>0.4795802412661804</v>
+        <v>-0.4101828697996921</v>
       </c>
       <c r="D9">
-        <v>0.6327276467749217</v>
+        <v>0.1413488340994211</v>
       </c>
       <c r="E9">
-        <v>0.3552988723518029</v>
+        <v>-0.08457792681343129</v>
       </c>
       <c r="F9">
-        <v>0.1923111789928565</v>
+        <v>0.0232377885831183</v>
       </c>
       <c r="G9">
-        <v>0.06822860359833866</v>
+        <v>-0.0731618320811834</v>
       </c>
       <c r="H9">
-        <v>0.5843816406042994</v>
-      </c>
-      <c r="I9">
-        <v>0.3744780054549828</v>
+        <v>0.4302490533718251</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,25 +784,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2387740594105157</v>
+        <v>0.7815531178611421</v>
       </c>
       <c r="C10">
-        <v>0.3919214649192569</v>
+        <v>0.5556263569482897</v>
       </c>
       <c r="D10">
-        <v>0.1144926904961382</v>
+        <v>0.6634420723448393</v>
       </c>
       <c r="E10">
-        <v>-0.04849500286280822</v>
+        <v>0.5670424516805376</v>
       </c>
       <c r="F10">
-        <v>-0.172577578257326</v>
-      </c>
-      <c r="G10">
-        <v>0.3435754587486348</v>
-      </c>
-      <c r="H10">
-        <v>0.1336718235993181</v>
+        <v>1.070453337133546</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +804,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.3465902496671606</v>
+        <v>0.59085446968239</v>
       </c>
       <c r="C11">
-        <v>0.0691614752440418</v>
+        <v>0.4944548490180882</v>
       </c>
       <c r="D11">
-        <v>-0.09382621811490459</v>
+        <v>0.9978657344710967</v>
       </c>
       <c r="E11">
-        <v>-0.2179087935094224</v>
+        <v>1.256387676394546</v>
       </c>
       <c r="F11">
-        <v>0.2982442434965384</v>
+        <v>-0.467594908583768</v>
       </c>
       <c r="G11">
-        <v>0.08834060834722172</v>
+        <v>0.1860443077789333</v>
+      </c>
+      <c r="H11">
+        <v>0.5495882426873645</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,19 +830,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.00230005330798793</v>
+        <v>0.9421746901075616</v>
       </c>
       <c r="C12">
-        <v>-0.1606876400509585</v>
+        <v>1.200696632031011</v>
       </c>
       <c r="D12">
-        <v>-0.2847702154454763</v>
+        <v>-0.5232859529473031</v>
       </c>
       <c r="E12">
-        <v>0.2313828215604846</v>
+        <v>0.1303532634153982</v>
       </c>
       <c r="F12">
-        <v>0.02147918641116785</v>
+        <v>0.4938971983238294</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,16 +850,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.1902738424076751</v>
+        <v>-0.8773451131212686</v>
       </c>
       <c r="C13">
-        <v>-0.3143564178021929</v>
+        <v>-0.2237058967585673</v>
       </c>
       <c r="D13">
-        <v>0.201796619203768</v>
+        <v>0.1398380381498639</v>
       </c>
       <c r="E13">
-        <v>-0.00810701594554874</v>
+        <v>-0.7609378067297656</v>
+      </c>
+      <c r="F13">
+        <v>0.3094377502238873</v>
+      </c>
+      <c r="G13">
+        <v>-0.2676221637925746</v>
+      </c>
+      <c r="H13">
+        <v>-0.4732281478855908</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -846,13 +876,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.3325070745318338</v>
+        <v>0.04951982135029001</v>
       </c>
       <c r="C14">
-        <v>0.1836459624741271</v>
+        <v>-0.8512560235293395</v>
       </c>
       <c r="D14">
-        <v>-0.02625767267518964</v>
+        <v>0.2191195334243133</v>
+      </c>
+      <c r="E14">
+        <v>-0.3579403805921485</v>
+      </c>
+      <c r="F14">
+        <v>-0.5635463646851647</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -860,10 +896,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1656141382254278</v>
+        <v>0.2874422675287736</v>
       </c>
       <c r="C15">
-        <v>-0.04428949692388896</v>
+        <v>-0.2896176464876882</v>
+      </c>
+      <c r="D15">
+        <v>-0.4952236305807045</v>
+      </c>
+      <c r="E15">
+        <v>0.4839213511403928</v>
+      </c>
+      <c r="F15">
+        <v>-0.2524249921969692</v>
+      </c>
+      <c r="G15">
+        <v>-0.2703948068511625</v>
+      </c>
+      <c r="H15">
+        <v>-0.2469899413108257</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -871,6 +922,1001 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.5938852086106097</v>
+      </c>
+      <c r="C16">
+        <v>0.3852597731104875</v>
+      </c>
+      <c r="D16">
+        <v>-0.3510865702268745</v>
+      </c>
+      <c r="E16">
+        <v>-0.3690563848810678</v>
+      </c>
+      <c r="F16">
+        <v>-0.345651519340731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-0.2740769919852016</v>
+      </c>
+      <c r="C17">
+        <v>-0.292046806639395</v>
+      </c>
+      <c r="D17">
+        <v>-0.2686419410990581</v>
+      </c>
+      <c r="E17">
+        <v>-0.6338163768657989</v>
+      </c>
+      <c r="F17">
+        <v>0.02200314030515318</v>
+      </c>
+      <c r="G17">
+        <v>-0.1088677406362705</v>
+      </c>
+      <c r="H17">
+        <v>-0.2183855395603924</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-0.09712588908289738</v>
+      </c>
+      <c r="C18">
+        <v>-0.4623003248496382</v>
+      </c>
+      <c r="D18">
+        <v>0.193519192321314</v>
+      </c>
+      <c r="E18">
+        <v>0.0626483113798903</v>
+      </c>
+      <c r="F18">
+        <v>-0.04686948754423159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.1560540901775642</v>
+      </c>
+      <c r="C19">
+        <v>0.02518320923614054</v>
+      </c>
+      <c r="D19">
+        <v>-0.08433458968798135</v>
+      </c>
+      <c r="E19">
+        <v>-0.9141123767555346</v>
+      </c>
+      <c r="F19">
+        <v>-0.3335865875868869</v>
+      </c>
+      <c r="G19">
+        <v>-0.4169726890166669</v>
+      </c>
+      <c r="H19">
+        <v>-0.6348825665564255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.106237102096024</v>
+      </c>
+      <c r="C20">
+        <v>-0.9360148891635773</v>
+      </c>
+      <c r="D20">
+        <v>-0.3554890999949296</v>
+      </c>
+      <c r="E20">
+        <v>-0.4388752014247095</v>
+      </c>
+      <c r="F20">
+        <v>-0.6567850789644682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.2673832081489602</v>
+      </c>
+      <c r="C21">
+        <v>-0.3507693095787401</v>
+      </c>
+      <c r="D21">
+        <v>-0.5686791871184989</v>
+      </c>
+      <c r="E21">
+        <v>0.9950986165176716</v>
+      </c>
+      <c r="F21">
+        <v>-0.3408850895643921</v>
+      </c>
+      <c r="G21">
+        <v>1.099729326965736</v>
+      </c>
+      <c r="H21">
+        <v>-0.0007147872950865053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-0.4749660705519546</v>
+      </c>
+      <c r="C22">
+        <v>1.088811733084216</v>
+      </c>
+      <c r="D22">
+        <v>-0.2471719729978479</v>
+      </c>
+      <c r="E22">
+        <v>1.19344244353228</v>
+      </c>
+      <c r="F22">
+        <v>0.09299832927145768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1.097015279354651</v>
+      </c>
+      <c r="C23">
+        <v>-0.2389684267274125</v>
+      </c>
+      <c r="D23">
+        <v>1.201645989802716</v>
+      </c>
+      <c r="E23">
+        <v>0.1012018755418931</v>
+      </c>
+      <c r="F23">
+        <v>-0.1090725226277768</v>
+      </c>
+      <c r="G23">
+        <v>0.4894716807559536</v>
+      </c>
+      <c r="H23">
+        <v>0.1638030399807392</v>
+      </c>
+      <c r="I23">
+        <v>0.8809828413563429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.2415579873788807</v>
+      </c>
+      <c r="C24">
+        <v>1.199056429151248</v>
+      </c>
+      <c r="D24">
+        <v>0.09861231489042488</v>
+      </c>
+      <c r="E24">
+        <v>-0.111662083279245</v>
+      </c>
+      <c r="F24">
+        <v>0.4868821201044854</v>
+      </c>
+      <c r="G24">
+        <v>0.161213479329271</v>
+      </c>
+      <c r="H24">
+        <v>0.8783932807048747</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>1.205589761734299</v>
+      </c>
+      <c r="C25">
+        <v>0.1051456474734768</v>
+      </c>
+      <c r="D25">
+        <v>-0.1051287506961931</v>
+      </c>
+      <c r="E25">
+        <v>0.4934154526875373</v>
+      </c>
+      <c r="F25">
+        <v>0.1677468119123229</v>
+      </c>
+      <c r="G25">
+        <v>0.8849266132879265</v>
+      </c>
+      <c r="H25">
+        <v>2.580798888925627</v>
+      </c>
+      <c r="I25">
+        <v>9.425045683850206</v>
+      </c>
+      <c r="J25">
+        <v>-8.125608399251105</v>
+      </c>
+      <c r="K25">
+        <v>-0.4162117995949584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-0.006071047505593896</v>
+      </c>
+      <c r="C26">
+        <v>-0.2163454456752638</v>
+      </c>
+      <c r="D26">
+        <v>0.3821987577084666</v>
+      </c>
+      <c r="E26">
+        <v>0.05653011693325222</v>
+      </c>
+      <c r="F26">
+        <v>0.7737099183088558</v>
+      </c>
+      <c r="G26">
+        <v>2.469582193946557</v>
+      </c>
+      <c r="H26">
+        <v>9.313828988871135</v>
+      </c>
+      <c r="I26">
+        <v>-8.236825094230175</v>
+      </c>
+      <c r="J26">
+        <v>-0.5274284945740291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-0.2580915896621678</v>
+      </c>
+      <c r="C27">
+        <v>0.3404526137215625</v>
+      </c>
+      <c r="D27">
+        <v>0.01478397294634815</v>
+      </c>
+      <c r="E27">
+        <v>0.7319637743219518</v>
+      </c>
+      <c r="F27">
+        <v>2.427836049959653</v>
+      </c>
+      <c r="G27">
+        <v>9.272082844884231</v>
+      </c>
+      <c r="H27">
+        <v>-8.278571238217079</v>
+      </c>
+      <c r="I27">
+        <v>-0.5691746385609331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.3657676764542774</v>
+      </c>
+      <c r="C28">
+        <v>0.04009903567906303</v>
+      </c>
+      <c r="D28">
+        <v>0.7572788370546667</v>
+      </c>
+      <c r="E28">
+        <v>2.453151112692368</v>
+      </c>
+      <c r="F28">
+        <v>9.297397907616945</v>
+      </c>
+      <c r="G28">
+        <v>-8.253256175484365</v>
+      </c>
+      <c r="H28">
+        <v>-0.5438595758282182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>0.04413770072197692</v>
+      </c>
+      <c r="C29">
+        <v>0.7613175020975806</v>
+      </c>
+      <c r="D29">
+        <v>2.457189777735282</v>
+      </c>
+      <c r="E29">
+        <v>9.30143657265986</v>
+      </c>
+      <c r="F29">
+        <v>-8.249217510441451</v>
+      </c>
+      <c r="G29">
+        <v>-0.5398209107853043</v>
+      </c>
+      <c r="H29">
+        <v>1.043091750101607</v>
+      </c>
+      <c r="I29">
+        <v>-1.923195242247649</v>
+      </c>
+      <c r="J29">
+        <v>0.3408359124168144</v>
+      </c>
+      <c r="K29">
+        <v>-0.1103182425099242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0.6424403654065582</v>
+      </c>
+      <c r="C30">
+        <v>2.338312641044259</v>
+      </c>
+      <c r="D30">
+        <v>9.182559435968837</v>
+      </c>
+      <c r="E30">
+        <v>-8.368094647132473</v>
+      </c>
+      <c r="F30">
+        <v>-0.6586980474763267</v>
+      </c>
+      <c r="G30">
+        <v>0.9242146134105849</v>
+      </c>
+      <c r="H30">
+        <v>-2.042072378938671</v>
+      </c>
+      <c r="I30">
+        <v>0.221958775725792</v>
+      </c>
+      <c r="J30">
+        <v>-0.2291953792009466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>2.297389002388887</v>
+      </c>
+      <c r="C31">
+        <v>9.141635797313464</v>
+      </c>
+      <c r="D31">
+        <v>-8.409018285787846</v>
+      </c>
+      <c r="E31">
+        <v>-0.6996216861316987</v>
+      </c>
+      <c r="F31">
+        <v>0.8832909747552129</v>
+      </c>
+      <c r="G31">
+        <v>-2.082996017594043</v>
+      </c>
+      <c r="H31">
+        <v>0.18103513707042</v>
+      </c>
+      <c r="I31">
+        <v>-0.2701190178563186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>8.826710628892494</v>
+      </c>
+      <c r="C32">
+        <v>-8.723943454208817</v>
+      </c>
+      <c r="D32">
+        <v>-1.01454685455267</v>
+      </c>
+      <c r="E32">
+        <v>0.5683658063342414</v>
+      </c>
+      <c r="F32">
+        <v>-2.397921186015015</v>
+      </c>
+      <c r="G32">
+        <v>-0.1338900313505515</v>
+      </c>
+      <c r="H32">
+        <v>-0.5850441862772902</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-9.780318414391347</v>
+      </c>
+      <c r="C33">
+        <v>-2.0709218147352</v>
+      </c>
+      <c r="D33">
+        <v>-0.4880091538482882</v>
+      </c>
+      <c r="E33">
+        <v>-3.454296146197544</v>
+      </c>
+      <c r="F33">
+        <v>-1.190264991533081</v>
+      </c>
+      <c r="G33">
+        <v>-1.64141914645982</v>
+      </c>
+      <c r="H33">
+        <v>-1.781783209973794</v>
+      </c>
+      <c r="I33">
+        <v>-1.255544199111576</v>
+      </c>
+      <c r="J33">
+        <v>-1.39737314585085</v>
+      </c>
+      <c r="K33">
+        <v>-0.7543985244487865</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>-1.200275438764269</v>
+      </c>
+      <c r="C34">
+        <v>0.3826372221226423</v>
+      </c>
+      <c r="D34">
+        <v>-2.583649770226613</v>
+      </c>
+      <c r="E34">
+        <v>-0.3196186155621505</v>
+      </c>
+      <c r="F34">
+        <v>-0.7707727704888893</v>
+      </c>
+      <c r="G34">
+        <v>-0.9111368340028634</v>
+      </c>
+      <c r="H34">
+        <v>-0.3848978231406458</v>
+      </c>
+      <c r="I34">
+        <v>-0.5267267698799198</v>
+      </c>
+      <c r="J34">
+        <v>0.1162478515221441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>0.3719860057927588</v>
+      </c>
+      <c r="C35">
+        <v>-2.594300986556497</v>
+      </c>
+      <c r="D35">
+        <v>-0.3302698318920341</v>
+      </c>
+      <c r="E35">
+        <v>-0.7814239868187727</v>
+      </c>
+      <c r="F35">
+        <v>-0.9217880503327469</v>
+      </c>
+      <c r="G35">
+        <v>-0.3955490394705293</v>
+      </c>
+      <c r="H35">
+        <v>-0.5373779862098034</v>
+      </c>
+      <c r="I35">
+        <v>0.1055966351922606</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-2.702915518772638</v>
+      </c>
+      <c r="C36">
+        <v>-0.4388843641081749</v>
+      </c>
+      <c r="D36">
+        <v>-0.8900385190349136</v>
+      </c>
+      <c r="E36">
+        <v>-1.030402582548888</v>
+      </c>
+      <c r="F36">
+        <v>-0.5041635716866701</v>
+      </c>
+      <c r="G36">
+        <v>-0.6459925184259441</v>
+      </c>
+      <c r="H36">
+        <v>-0.003017897023880223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>-0.2307826431404359</v>
+      </c>
+      <c r="C37">
+        <v>-0.6819367980671746</v>
+      </c>
+      <c r="D37">
+        <v>-0.8223008615811487</v>
+      </c>
+      <c r="E37">
+        <v>-0.2960618507189311</v>
+      </c>
+      <c r="F37">
+        <v>-0.4378907974582051</v>
+      </c>
+      <c r="G37">
+        <v>0.2050838239438588</v>
+      </c>
+      <c r="H37">
+        <v>0.3294965302734412</v>
+      </c>
+      <c r="I37">
+        <v>-0.06813367576417605</v>
+      </c>
+      <c r="J37">
+        <v>-0.1443023894650218</v>
+      </c>
+      <c r="K37">
+        <v>0.1320196686578998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>-0.5654386276933741</v>
+      </c>
+      <c r="C38">
+        <v>-0.7058026912073482</v>
+      </c>
+      <c r="D38">
+        <v>-0.1795636803451306</v>
+      </c>
+      <c r="E38">
+        <v>-0.3213926270844047</v>
+      </c>
+      <c r="F38">
+        <v>0.3215819943176592</v>
+      </c>
+      <c r="G38">
+        <v>0.4459947006472416</v>
+      </c>
+      <c r="H38">
+        <v>0.04836449460962439</v>
+      </c>
+      <c r="I38">
+        <v>-0.02780421909122137</v>
+      </c>
+      <c r="J38">
+        <v>0.2485178390317002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>-0.6603092772102132</v>
+      </c>
+      <c r="C39">
+        <v>-0.1340702663479956</v>
+      </c>
+      <c r="D39">
+        <v>-0.2758992130872696</v>
+      </c>
+      <c r="E39">
+        <v>0.3670754083147943</v>
+      </c>
+      <c r="F39">
+        <v>0.4914881146443768</v>
+      </c>
+      <c r="G39">
+        <v>0.09385790860675949</v>
+      </c>
+      <c r="H39">
+        <v>0.01768919490591373</v>
+      </c>
+      <c r="I39">
+        <v>0.2940112530288354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>-0.15162438770796</v>
+      </c>
+      <c r="C40">
+        <v>-0.293453334447234</v>
+      </c>
+      <c r="D40">
+        <v>0.3495212869548299</v>
+      </c>
+      <c r="E40">
+        <v>0.4739339932844123</v>
+      </c>
+      <c r="F40">
+        <v>0.07630378724679503</v>
+      </c>
+      <c r="G40">
+        <v>0.0001350735459492769</v>
+      </c>
+      <c r="H40">
+        <v>0.2764571316688709</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>-0.2053460154962278</v>
+      </c>
+      <c r="C41">
+        <v>0.4376286059058361</v>
+      </c>
+      <c r="D41">
+        <v>0.5620413122354185</v>
+      </c>
+      <c r="E41">
+        <v>0.1644111061978012</v>
+      </c>
+      <c r="F41">
+        <v>0.08824239249695551</v>
+      </c>
+      <c r="G41">
+        <v>0.3645644506198771</v>
+      </c>
+      <c r="H41">
+        <v>0.1933446283081531</v>
+      </c>
+      <c r="I41">
+        <v>0.3464920338168943</v>
+      </c>
+      <c r="J41">
+        <v>0.06906325939377558</v>
+      </c>
+      <c r="K41">
+        <v>-0.09392443396517081</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0.6162032393936197</v>
+      </c>
+      <c r="C42">
+        <v>0.7406159457232021</v>
+      </c>
+      <c r="D42">
+        <v>0.3429857396855849</v>
+      </c>
+      <c r="E42">
+        <v>0.2668170259847391</v>
+      </c>
+      <c r="F42">
+        <v>0.5431390841076607</v>
+      </c>
+      <c r="G42">
+        <v>0.3719192617959367</v>
+      </c>
+      <c r="H42">
+        <v>0.525066667304678</v>
+      </c>
+      <c r="I42">
+        <v>0.2476378928815592</v>
+      </c>
+      <c r="J42">
+        <v>0.0846501995226128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>1.652643173475852</v>
+      </c>
+      <c r="C43">
+        <v>1.255012967438235</v>
+      </c>
+      <c r="D43">
+        <v>1.178844253737389</v>
+      </c>
+      <c r="E43">
+        <v>1.455166311860311</v>
+      </c>
+      <c r="F43">
+        <v>1.283946489548587</v>
+      </c>
+      <c r="G43">
+        <v>1.437093895057328</v>
+      </c>
+      <c r="H43">
+        <v>1.159665120634209</v>
+      </c>
+      <c r="I43">
+        <v>0.9966774272752628</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>0.3110387314724781</v>
+      </c>
+      <c r="C44">
+        <v>0.2348700177716323</v>
+      </c>
+      <c r="D44">
+        <v>0.5111920758945538</v>
+      </c>
+      <c r="E44">
+        <v>0.3399722535828299</v>
+      </c>
+      <c r="F44">
+        <v>0.4931196590915711</v>
+      </c>
+      <c r="G44">
+        <v>0.2156908846684524</v>
+      </c>
+      <c r="H44">
+        <v>0.05270319130950599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>0.2388379152847414</v>
+      </c>
+      <c r="C45">
+        <v>0.5151599734076631</v>
+      </c>
+      <c r="D45">
+        <v>0.343940151095939</v>
+      </c>
+      <c r="E45">
+        <v>0.4970875566046802</v>
+      </c>
+      <c r="F45">
+        <v>0.2196587821815615</v>
+      </c>
+      <c r="G45">
+        <v>0.0566710888226151</v>
+      </c>
+      <c r="H45">
+        <v>-0.06741148657190271</v>
+      </c>
+      <c r="I45">
+        <v>0.4487415504340581</v>
+      </c>
+      <c r="J45">
+        <v>0.2388379152847414</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>0.6508000635779043</v>
+      </c>
+      <c r="C46">
+        <v>0.4795802412661804</v>
+      </c>
+      <c r="D46">
+        <v>0.6327276467749217</v>
+      </c>
+      <c r="E46">
+        <v>0.3552988723518029</v>
+      </c>
+      <c r="F46">
+        <v>0.1923111789928565</v>
+      </c>
+      <c r="G46">
+        <v>0.06822860359833866</v>
+      </c>
+      <c r="H46">
+        <v>0.5843816406042994</v>
+      </c>
+      <c r="I46">
+        <v>0.3744780054549828</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>0.2387740594105157</v>
+      </c>
+      <c r="C47">
+        <v>0.3919214649192569</v>
+      </c>
+      <c r="D47">
+        <v>0.1144926904961382</v>
+      </c>
+      <c r="E47">
+        <v>-0.04849500286280822</v>
+      </c>
+      <c r="F47">
+        <v>-0.172577578257326</v>
+      </c>
+      <c r="G47">
+        <v>0.3435754587486348</v>
+      </c>
+      <c r="H47">
+        <v>0.1336718235993181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>0.3465902496671606</v>
+      </c>
+      <c r="C48">
+        <v>0.0691614752440418</v>
+      </c>
+      <c r="D48">
+        <v>-0.09382621811490459</v>
+      </c>
+      <c r="E48">
+        <v>-0.2179087935094224</v>
+      </c>
+      <c r="F48">
+        <v>0.2982442434965384</v>
+      </c>
+      <c r="G48">
+        <v>0.08834060834722172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>0.00230005330798793</v>
+      </c>
+      <c r="C49">
+        <v>-0.1606876400509585</v>
+      </c>
+      <c r="D49">
+        <v>-0.2847702154454763</v>
+      </c>
+      <c r="E49">
+        <v>0.2313828215604846</v>
+      </c>
+      <c r="F49">
+        <v>0.02147918641116785</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>-0.1902738424076751</v>
+      </c>
+      <c r="C50">
+        <v>-0.3143564178021929</v>
+      </c>
+      <c r="D50">
+        <v>0.201796619203768</v>
+      </c>
+      <c r="E50">
+        <v>-0.00810701594554874</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>-0.3325070745318338</v>
+      </c>
+      <c r="C51">
+        <v>0.1836459624741271</v>
+      </c>
+      <c r="D51">
+        <v>-0.02625767267518964</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>0.1656141382254278</v>
+      </c>
+      <c r="C52">
+        <v>-0.04428949692388896</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
         <v>-0.09587373626955231</v>
       </c>
     </row>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_10_9_qoq_errors_latest_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Q0</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>2025-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2025-10-01 00:00:00_diff</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1920,6 +1923,11 @@
         <v>-0.09587373626955231</v>
       </c>
     </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
